--- a/analysis/queryResults/Number_of_Configurations_per_Domain_results_02022018_beforeRemoving_NULL_ERR.xlsx
+++ b/analysis/queryResults/Number_of_Configurations_per_Domain_results_02022018_beforeRemoving_NULL_ERR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bonn\courses\labs\labUsableSecurityAndPrivacy\queryResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malik\Documents\GitHub\AnalyzeServerConfigurationBehaviour\analysis\queryResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -644,6 +644,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Number_of_Configurations_per_Do!$B$2:$B$51</c:f>
@@ -814,11 +872,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1479418864"/>
-        <c:axId val="-1479412880"/>
+        <c:axId val="-972935456"/>
+        <c:axId val="-1187640736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1479418864"/>
+        <c:axId val="-972935456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +919,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1479412880"/>
+        <c:crossAx val="-1187640736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -869,7 +927,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1479412880"/>
+        <c:axId val="-1187640736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,7 +978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1479418864"/>
+        <c:crossAx val="-972935456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1516,16 +1574,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>416901</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7325</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>148004</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1812,11 +1870,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" zoomScale="26" zoomScaleNormal="26" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/analysis/queryResults/Number_of_Configurations_per_Domain_results_02022018_beforeRemoving_NULL_ERR.xlsx
+++ b/analysis/queryResults/Number_of_Configurations_per_Domain_results_02022018_beforeRemoving_NULL_ERR.xlsx
@@ -14,17 +14,20 @@
   <sheets>
     <sheet name="Number_of_Configurations_per_Do" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Number of Configurations</t>
   </si>
   <si>
     <t>Number of Configuration Attempts</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -508,8 +511,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -583,6 +587,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Configuration Attempts Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -864,7 +893,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -872,16 +901,105 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-972935456"/>
-        <c:axId val="-1187640736"/>
+        <c:axId val="-1032086128"/>
+        <c:axId val="-1032090480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-972935456"/>
+        <c:axId val="-1032086128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Attempted Configuration</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Test Frequency</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -919,7 +1037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187640736"/>
+        <c:crossAx val="-1032090480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -927,9 +1045,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1187640736"/>
+        <c:axId val="-1032090480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -947,6 +1066,81 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Configuration</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Attempts per Domain</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -978,7 +1172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-972935456"/>
+        <c:crossAx val="-1032086128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1022,7 +1216,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1582,8 +1776,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>7325</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>148004</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1868,691 +2062,1034 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="26" zoomScaleNormal="26" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>10145</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>A2*B2</f>
+        <v>10145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>47966</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">A3*B3</f>
+        <v>95932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1432</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>5833</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>23332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>494</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1551</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>9306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>237</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>655</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>265</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>176</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>57</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>58</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>62</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>63</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>65</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>66</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>68</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>73</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>87</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>88</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>139</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>174</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <f t="shared" ref="C67:C84" si="1">A67*B67</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>189</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>246</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>404</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>693</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>694</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>920</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1132</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1214</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1610</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1873</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1931</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1979</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2385</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2810</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2858</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2959</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>6266</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>6266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="1">
+        <f>SUM(C2:C84)</f>
+        <v>200444</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/analysis/queryResults/Number_of_Configurations_per_Domain_results_02022018_beforeRemoving_NULL_ERR.xlsx
+++ b/analysis/queryResults/Number_of_Configurations_per_Domain_results_02022018_beforeRemoving_NULL_ERR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malik\Documents\GitHub\AnalyzeServerConfigurationBehaviour\analysis\queryResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malik\Google Drive\analysis\queryResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -901,11 +901,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1032086128"/>
-        <c:axId val="-1032090480"/>
+        <c:axId val="-342306016"/>
+        <c:axId val="-342305472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1032086128"/>
+        <c:axId val="-342306016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1032090480"/>
+        <c:crossAx val="-342305472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1045,7 +1045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1032090480"/>
+        <c:axId val="-342305472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50000"/>
@@ -1172,7 +1172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1032086128"/>
+        <c:crossAx val="-342306016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2064,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3082,6 +3082,10 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <f>SUM(B2:B84)</f>
+        <v>69468</v>
+      </c>
       <c r="C85" s="1">
         <f>SUM(C2:C84)</f>
         <v>200444</v>
